--- a/biology/Médecine/Hôpital_Charles-Nicolle/Hôpital_Charles-Nicolle.xlsx
+++ b/biology/Médecine/Hôpital_Charles-Nicolle/Hôpital_Charles-Nicolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Nicolle</t>
+          <t>Hôpital_Charles-Nicolle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Charles-Nicolle (arabe : مستشفى شارل نيكول) est un établissement de santé publique situé sur le boulevard du 9-Avril 1938 dans le quartier de Bab Saadoun à Tunis. Il assure des soins et des services dans les différentes spécialités médicales.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Nicolle</t>
+          <t>Hôpital_Charles-Nicolle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital Charles-Nicolle est fondé le 9 juin 1897, sous le protectorat français, et baptisé « hôpital civil français »[1]. En 1946, il est rebaptisé en l'honneur de Charles Nicolle, directeur de l'institut Pasteur de Tunis de 1903 à 1936 et prix Nobel de médecine en 1928[2].
-Au cours de son histoire, l'hôpital se distingue par sa vocation de pionnier en Tunisie dans certaines spécialités[1] dont le diagnostic virologique, les maladies congénitales et la néphrologie pédiatrique.
-En 1995, il devient un établissement public hospitalo-universitaire à caractère social dont le but est « la prévention et l'amélioration du niveau de santé des individus et de la population dans son ensemble »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Charles-Nicolle est fondé le 9 juin 1897, sous le protectorat français, et baptisé « hôpital civil français ». En 1946, il est rebaptisé en l'honneur de Charles Nicolle, directeur de l'institut Pasteur de Tunis de 1903 à 1936 et prix Nobel de médecine en 1928.
+Au cours de son histoire, l'hôpital se distingue par sa vocation de pionnier en Tunisie dans certaines spécialités dont le diagnostic virologique, les maladies congénitales et la néphrologie pédiatrique.
+En 1995, il devient un établissement public hospitalo-universitaire à caractère social dont le but est « la prévention et l'amélioration du niveau de santé des individus et de la population dans son ensemble ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Nicolle</t>
+          <t>Hôpital_Charles-Nicolle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'hôpital, organisé en pavillons plus ou moins indépendants pour chaque spécialité, comporte[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'hôpital, organisé en pavillons plus ou moins indépendants pour chaque spécialité, comporte : 
 des services de spécialités médicales (hospitalisation et consultations externes) en cardiologie, dermatologie, gastro-entérologie, médecine interne, néonatalogie, neurologie, pédiatrie, pneumologie, anesthésie-réanimation, rhumatologie et gynécologie obstétrique ;
 des services de chirurgie générale et spécialisée (ophtalmologie, orthopédie, ORL, urologie et chirurgie maxillo-faciale) ;
 des consultations externes pour les maladies congénitales et la psychiatrie ;
